--- a/Python/heightmap_gan/Heightmaps/histogram.xlsx
+++ b/Python/heightmap_gan/Heightmaps/histogram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\StuHomeEven\HomeDrive0$\1800480\GitHub\CMP400\Python\heightmap_gan\Heightmaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CMP400\Python\heightmap_gan\Heightmaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6928D-084B-413C-9297-202C7DF08A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74685372-F139-4386-8DB3-347D89B9AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,6 +50,26 @@
     </bk>
   </cellMetadata>
 </metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>total number of used pixels</t>
+  </si>
+  <si>
+    <t>above values as a percentage of total</t>
+  </si>
+  <si>
+    <t>upper bound of elevation value for this bucket</t>
+  </si>
+  <si>
+    <t>legend:</t>
+  </si>
+  <si>
+    <t>number of pixels in this bucket</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,8 +551,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4968,16 +4991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>188117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5302,1027 +5325,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV7"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="72" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="79" width="13" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12" bestFit="1" customWidth="1"/>
+    <col min="81" max="100" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:100" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>88.5</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <f>A1+88.5</f>
         <v>177</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <f t="shared" ref="C1:BN1" si="0">B1+88.5</f>
         <v>265.5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <f t="shared" si="0"/>
         <v>442.5</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <f t="shared" si="0"/>
         <v>531</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <f t="shared" si="0"/>
         <v>619.5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <f t="shared" si="0"/>
         <v>796.5</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <f t="shared" si="0"/>
         <v>973.5</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <f t="shared" si="0"/>
         <v>1150.5</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <f t="shared" si="0"/>
         <v>1239</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <f t="shared" si="0"/>
         <v>1327.5</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <f t="shared" si="0"/>
         <v>1416</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <f t="shared" si="0"/>
         <v>1504.5</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <f t="shared" si="0"/>
         <v>1593</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <f t="shared" si="0"/>
         <v>1681.5</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <f t="shared" si="0"/>
         <v>1858.5</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="3">
         <f t="shared" si="0"/>
         <v>1947</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="3">
         <f t="shared" si="0"/>
         <v>2035.5</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="3">
         <f t="shared" si="0"/>
         <v>2124</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="3">
         <f t="shared" si="0"/>
         <v>2212.5</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="3">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="3">
         <f t="shared" si="0"/>
         <v>2389.5</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="3">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="3">
         <f t="shared" si="0"/>
         <v>2566.5</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="3">
         <f t="shared" si="0"/>
         <v>2655</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="3">
         <f t="shared" si="0"/>
         <v>2743.5</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="3">
         <f t="shared" si="0"/>
         <v>2832</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="3">
         <f t="shared" si="0"/>
         <v>2920.5</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="3">
         <f t="shared" si="0"/>
         <v>3009</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="3">
         <f t="shared" si="0"/>
         <v>3097.5</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="3">
         <f t="shared" si="0"/>
         <v>3186</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="3">
         <f t="shared" si="0"/>
         <v>3274.5</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="3">
         <f t="shared" si="0"/>
         <v>3363</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="3">
         <f t="shared" si="0"/>
         <v>3451.5</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="3">
         <f t="shared" si="0"/>
         <v>3540</v>
       </c>
-      <c r="AO1">
+      <c r="AO1" s="3">
         <f t="shared" si="0"/>
         <v>3628.5</v>
       </c>
-      <c r="AP1">
+      <c r="AP1" s="3">
         <f t="shared" si="0"/>
         <v>3717</v>
       </c>
-      <c r="AQ1">
+      <c r="AQ1" s="3">
         <f t="shared" si="0"/>
         <v>3805.5</v>
       </c>
-      <c r="AR1">
+      <c r="AR1" s="3">
         <f t="shared" si="0"/>
         <v>3894</v>
       </c>
-      <c r="AS1">
+      <c r="AS1" s="3">
         <f t="shared" si="0"/>
         <v>3982.5</v>
       </c>
-      <c r="AT1">
+      <c r="AT1" s="3">
         <f t="shared" si="0"/>
         <v>4071</v>
       </c>
-      <c r="AU1">
+      <c r="AU1" s="3">
         <f t="shared" si="0"/>
         <v>4159.5</v>
       </c>
-      <c r="AV1">
+      <c r="AV1" s="3">
         <f t="shared" si="0"/>
         <v>4248</v>
       </c>
-      <c r="AW1">
+      <c r="AW1" s="3">
         <f t="shared" si="0"/>
         <v>4336.5</v>
       </c>
-      <c r="AX1">
+      <c r="AX1" s="3">
         <f t="shared" si="0"/>
         <v>4425</v>
       </c>
-      <c r="AY1">
+      <c r="AY1" s="3">
         <f t="shared" si="0"/>
         <v>4513.5</v>
       </c>
-      <c r="AZ1">
+      <c r="AZ1" s="3">
         <f t="shared" si="0"/>
         <v>4602</v>
       </c>
-      <c r="BA1">
+      <c r="BA1" s="3">
         <f t="shared" si="0"/>
         <v>4690.5</v>
       </c>
-      <c r="BB1">
+      <c r="BB1" s="3">
         <f t="shared" si="0"/>
         <v>4779</v>
       </c>
-      <c r="BC1">
+      <c r="BC1" s="3">
         <f t="shared" si="0"/>
         <v>4867.5</v>
       </c>
-      <c r="BD1">
+      <c r="BD1" s="3">
         <f t="shared" si="0"/>
         <v>4956</v>
       </c>
-      <c r="BE1">
+      <c r="BE1" s="3">
         <f t="shared" si="0"/>
         <v>5044.5</v>
       </c>
-      <c r="BF1">
+      <c r="BF1" s="3">
         <f t="shared" si="0"/>
         <v>5133</v>
       </c>
-      <c r="BG1">
+      <c r="BG1" s="3">
         <f t="shared" si="0"/>
         <v>5221.5</v>
       </c>
-      <c r="BH1">
+      <c r="BH1" s="3">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
-      <c r="BI1">
+      <c r="BI1" s="3">
         <f t="shared" si="0"/>
         <v>5398.5</v>
       </c>
-      <c r="BJ1">
+      <c r="BJ1" s="3">
         <f t="shared" si="0"/>
         <v>5487</v>
       </c>
-      <c r="BK1">
+      <c r="BK1" s="3">
         <f t="shared" si="0"/>
         <v>5575.5</v>
       </c>
-      <c r="BL1">
+      <c r="BL1" s="3">
         <f t="shared" si="0"/>
         <v>5664</v>
       </c>
-      <c r="BM1">
+      <c r="BM1" s="3">
         <f t="shared" si="0"/>
         <v>5752.5</v>
       </c>
-      <c r="BN1">
+      <c r="BN1" s="3">
         <f t="shared" si="0"/>
         <v>5841</v>
       </c>
-      <c r="BO1">
+      <c r="BO1" s="3">
         <f t="shared" ref="BO1:CU1" si="1">BN1+88.5</f>
         <v>5929.5</v>
       </c>
-      <c r="BP1">
+      <c r="BP1" s="3">
         <f t="shared" si="1"/>
         <v>6018</v>
       </c>
-      <c r="BQ1">
+      <c r="BQ1" s="3">
         <f t="shared" si="1"/>
         <v>6106.5</v>
       </c>
-      <c r="BR1">
+      <c r="BR1" s="3">
         <f t="shared" si="1"/>
         <v>6195</v>
       </c>
-      <c r="BS1">
+      <c r="BS1" s="3">
         <f t="shared" si="1"/>
         <v>6283.5</v>
       </c>
-      <c r="BT1">
+      <c r="BT1" s="3">
         <f t="shared" si="1"/>
         <v>6372</v>
       </c>
-      <c r="BU1">
+      <c r="BU1" s="3">
         <f t="shared" si="1"/>
         <v>6460.5</v>
       </c>
-      <c r="BV1">
+      <c r="BV1" s="3">
         <f t="shared" si="1"/>
         <v>6549</v>
       </c>
-      <c r="BW1">
+      <c r="BW1" s="3">
         <f t="shared" si="1"/>
         <v>6637.5</v>
       </c>
-      <c r="BX1">
+      <c r="BX1" s="3">
         <f t="shared" si="1"/>
         <v>6726</v>
       </c>
-      <c r="BY1">
+      <c r="BY1" s="3">
         <f t="shared" si="1"/>
         <v>6814.5</v>
       </c>
-      <c r="BZ1">
+      <c r="BZ1" s="3">
         <f t="shared" si="1"/>
         <v>6903</v>
       </c>
-      <c r="CA1">
+      <c r="CA1" s="3">
         <f t="shared" si="1"/>
         <v>6991.5</v>
       </c>
-      <c r="CB1">
+      <c r="CB1" s="3">
         <f t="shared" si="1"/>
         <v>7080</v>
       </c>
-      <c r="CC1">
+      <c r="CC1" s="3">
         <f t="shared" si="1"/>
         <v>7168.5</v>
       </c>
-      <c r="CD1">
+      <c r="CD1" s="3">
         <f t="shared" si="1"/>
         <v>7257</v>
       </c>
-      <c r="CE1">
+      <c r="CE1" s="3">
         <f t="shared" si="1"/>
         <v>7345.5</v>
       </c>
-      <c r="CF1">
+      <c r="CF1" s="3">
         <f t="shared" si="1"/>
         <v>7434</v>
       </c>
-      <c r="CG1">
+      <c r="CG1" s="3">
         <f t="shared" si="1"/>
         <v>7522.5</v>
       </c>
-      <c r="CH1">
+      <c r="CH1" s="3">
         <f t="shared" si="1"/>
         <v>7611</v>
       </c>
-      <c r="CI1">
+      <c r="CI1" s="3">
         <f t="shared" si="1"/>
         <v>7699.5</v>
       </c>
-      <c r="CJ1">
+      <c r="CJ1" s="3">
         <f t="shared" si="1"/>
         <v>7788</v>
       </c>
-      <c r="CK1">
+      <c r="CK1" s="3">
         <f t="shared" si="1"/>
         <v>7876.5</v>
       </c>
-      <c r="CL1">
+      <c r="CL1" s="3">
         <f t="shared" si="1"/>
         <v>7965</v>
       </c>
-      <c r="CM1">
+      <c r="CM1" s="3">
         <f t="shared" si="1"/>
         <v>8053.5</v>
       </c>
-      <c r="CN1">
+      <c r="CN1" s="3">
         <f t="shared" si="1"/>
         <v>8142</v>
       </c>
-      <c r="CO1">
+      <c r="CO1" s="3">
         <f t="shared" si="1"/>
         <v>8230.5</v>
       </c>
-      <c r="CP1">
+      <c r="CP1" s="3">
         <f t="shared" si="1"/>
         <v>8319</v>
       </c>
-      <c r="CQ1">
+      <c r="CQ1" s="3">
         <f t="shared" si="1"/>
         <v>8407.5</v>
       </c>
-      <c r="CR1">
+      <c r="CR1" s="3">
         <f t="shared" si="1"/>
         <v>8496</v>
       </c>
-      <c r="CS1">
+      <c r="CS1" s="3">
         <f t="shared" si="1"/>
         <v>8584.5</v>
       </c>
-      <c r="CT1">
+      <c r="CT1" s="3">
         <f t="shared" si="1"/>
         <v>8673</v>
       </c>
-      <c r="CU1">
+      <c r="CU1" s="3">
         <f t="shared" si="1"/>
         <v>8761.5</v>
       </c>
-      <c r="CV1">
+      <c r="CV1" s="3">
         <f>CU1+88.5</f>
         <v>8850</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:100" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>213359590</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>97928730</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>73244805</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>67126926</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>41896089</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>32760606</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>23771898</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>18122892</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>16115828</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>12895017</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>11666279</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>9394546</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>8495017</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>7748934</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>6924186</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>6254666</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>5577480</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>4581200</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>4018129</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>3648470</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>3640635</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>3017422</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>2544638</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="4">
         <v>2034356</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="4">
         <v>1696758</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <v>1287242</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="4">
         <v>1011968</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="4">
         <v>787192</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="4">
         <v>564398</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="4">
         <v>398731</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="4">
         <v>316700</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="4">
         <v>260930</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4">
         <v>226135</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="4">
         <v>191758</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="4">
         <v>162065</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="4">
         <v>140464</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="4">
         <v>130319</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="4">
         <v>116721</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="4">
         <v>108624</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="4">
         <v>101254</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="4">
         <v>95707</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="4">
         <v>87760</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="4">
         <v>84825</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="4">
         <v>82899</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="4">
         <v>80820</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="4">
         <v>78524</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="4">
         <v>78876</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="4">
         <v>76622</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="4">
         <v>76729</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="4">
         <v>75305</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="4">
         <v>75591</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="4">
         <v>74137</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="4">
         <v>71435</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="4">
         <v>66537</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="4">
         <v>61425</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="4">
         <v>55915</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="4">
         <v>51677</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="4">
         <v>45515</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="4">
         <v>40923</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="4">
         <v>32722</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="4">
         <v>25339</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="4">
         <v>18904</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="4">
         <v>14422</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="4">
         <v>11483</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="4">
         <v>9498</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="4">
         <v>7208</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="4">
         <v>5368</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="4">
         <v>4029</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="4">
         <v>2929</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="4">
         <v>2024</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="4">
         <v>1444</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="4">
         <v>825</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="4">
         <v>528</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="4">
         <v>350</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="4">
         <v>257</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="4">
         <v>187</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="4">
         <v>163</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="4">
         <v>109</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="4">
         <v>81</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="4">
         <v>14</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="4">
         <v>0</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="4">
         <v>0</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="4">
         <v>0</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="4">
         <v>0</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="4">
         <v>0</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="4">
         <v>0</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="4">
         <v>0</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="4">
         <v>0</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="4">
         <v>0</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="4">
         <v>0</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="4">
         <v>0</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="4">
         <v>0</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="4">
         <v>0</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="4">
         <v>0</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="4">
         <v>0</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="4">
         <v>0</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="4">
         <v>0</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="4">
         <v>0</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" s="4">
         <v>0</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A3" cm="1">
+    <row r="3" spans="1:100" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" cm="1">
         <f t="array" ref="A3:CV3">100*A2:CV2/A7</f>
         <v>31.112471122625042</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>14.280139853101257</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>10.680686443223866</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>9.7885665543582459</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>6.1093614735734576</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>4.77720925567347</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>3.4664600267322787</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>2.6427120243737456</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>2.3500384176178444</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>1.880374086012534</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>1.7011973471451973</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>1.3699292407487875</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>1.2387583379716318</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>1.1299632011203591</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>1.0096969954464414</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>0.91206641007636302</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>0.81331795508708427</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>0.66803865111931382</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>0.5859306463772368</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>0.53202632005790684</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>0.53088380656111134</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <v>0.44000578947388069</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <v>0.37106359405984207</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
         <v>0.2966533742548858</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>0.24742423941236025</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="2">
         <v>0.18770789516810613</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="2">
         <v>0.14756695575305812</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="2">
         <v>0.11478972362086678</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="2">
         <v>8.2301510218815696E-2</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="2">
         <v>5.8143656552749307E-2</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="2">
         <v>4.6181751682853114E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="2">
         <v>3.804927207643468E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="2">
         <v>3.2975403905279407E-2</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="2">
         <v>2.7962489230188025E-2</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="2">
         <v>2.3632603683238364E-2</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="2">
         <v>2.0482707825640292E-2</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="2">
         <v>1.9003346061123257E-2</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="2">
         <v>1.7020461756155032E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="2">
         <v>1.5839742957998854E-2</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="2">
         <v>1.4765036580030342E-2</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="2">
         <v>1.3956163272216051E-2</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="2">
         <v>1.2797317738197631E-2</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="2">
         <v>1.2369330869902164E-2</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="2">
         <v>1.2088478158373352E-2</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="2">
         <v>1.1785314717424025E-2</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="2">
         <v>1.1450507954355409E-2</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="2">
         <v>1.150183721419868E-2</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="2">
         <v>1.1173154965088637E-2</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="2">
         <v>1.1188757893506904E-2</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="2">
         <v>1.0981107705959121E-2</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="2">
         <v>1.102281272958178E-2</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="2">
         <v>1.0810787889206445E-2</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="2">
         <v>1.0416777491204964E-2</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="2">
         <v>9.7025425062267062E-3</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="2">
         <v>8.9571016644119129E-3</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="2">
         <v>8.1536237617516015E-3</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="2">
         <v>7.5356311389794773E-3</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="2">
         <v>6.6370774482003778E-3</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="2">
         <v>5.9674639220631447E-3</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="2">
         <v>4.7715796607714547E-3</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="2">
         <v>3.6949775999110045E-3</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="2">
         <v>2.7566145684011852E-3</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="2">
         <v>2.103041435964975E-3</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="2">
         <v>1.6744712806258362E-3</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="2">
         <v>1.3850150852028383E-3</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="2">
         <v>1.0510832526997324E-3</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="2">
         <v>7.8277121260990064E-4</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="2">
         <v>5.8751587474018061E-4</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="2">
         <v>4.2711193772995508E-4</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="2">
         <v>2.9514324409881499E-4</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="2">
         <v>2.1056662276615061E-4</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="2">
         <v>1.2030295275766915E-4</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="2">
         <v>7.6993889764908263E-5</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="2">
         <v>5.1037616321435395E-5</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="2">
         <v>3.7476192556025424E-5</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="2">
         <v>2.7268669291738341E-5</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" s="2">
         <v>2.3768947029697057E-5</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" s="2">
         <v>1.5894571940104168E-5</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="2">
         <v>1.1811562634389336E-5</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" s="2">
         <v>2.0415046528574161E-6</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" s="2">
         <v>0</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" s="2">
         <v>0</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" s="2">
         <v>0</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" s="2">
         <v>0</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" s="2">
         <v>0</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="2">
         <v>0</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" s="2">
         <v>0</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" s="2">
         <v>0</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" s="2">
         <v>0</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" s="2">
         <v>0</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" s="2">
         <v>0</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" s="2">
         <v>0</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" s="2">
         <v>0</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" s="2">
         <v>0</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" s="2">
         <v>0</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" s="2">
         <v>0</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" s="2">
         <v>0</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" s="2">
         <v>0</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" s="2">
         <v>0</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>685768704</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
